--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgm2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgm2-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>96.17831799999999</v>
+        <v>37.98512966666667</v>
       </c>
       <c r="H2">
-        <v>288.534954</v>
+        <v>113.955389</v>
       </c>
       <c r="I2">
-        <v>0.7237598617297996</v>
+        <v>0.5085441461893128</v>
       </c>
       <c r="J2">
-        <v>0.7237598617297996</v>
+        <v>0.5085441461893129</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N2">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q2">
-        <v>11257.14920038503</v>
+        <v>2928.255539758192</v>
       </c>
       <c r="R2">
-        <v>101314.3428034653</v>
+        <v>26354.29985782373</v>
       </c>
       <c r="S2">
-        <v>0.2348865390797477</v>
+        <v>0.1222446897936042</v>
       </c>
       <c r="T2">
-        <v>0.2348865390797477</v>
+        <v>0.1222446897936042</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>96.17831799999999</v>
+        <v>37.98512966666667</v>
       </c>
       <c r="H3">
-        <v>288.534954</v>
+        <v>113.955389</v>
       </c>
       <c r="I3">
-        <v>0.7237598617297996</v>
+        <v>0.5085441461893128</v>
       </c>
       <c r="J3">
-        <v>0.7237598617297996</v>
+        <v>0.5085441461893129</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q3">
-        <v>9769.797133097205</v>
+        <v>3858.530889651508</v>
       </c>
       <c r="R3">
-        <v>87928.17419787485</v>
+        <v>34726.77800686357</v>
       </c>
       <c r="S3">
-        <v>0.2038521294561818</v>
+        <v>0.1610805154332393</v>
       </c>
       <c r="T3">
-        <v>0.2038521294561818</v>
+        <v>0.1610805154332393</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>96.17831799999999</v>
+        <v>37.98512966666667</v>
       </c>
       <c r="H4">
-        <v>288.534954</v>
+        <v>113.955389</v>
       </c>
       <c r="I4">
-        <v>0.7237598617297996</v>
+        <v>0.5085441461893128</v>
       </c>
       <c r="J4">
-        <v>0.7237598617297996</v>
+        <v>0.5085441461893129</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q4">
-        <v>13659.89770902034</v>
+        <v>5394.906008967017</v>
       </c>
       <c r="R4">
-        <v>122939.0793811831</v>
+        <v>48554.15408070316</v>
       </c>
       <c r="S4">
-        <v>0.28502119319387</v>
+        <v>0.2252189409624693</v>
       </c>
       <c r="T4">
-        <v>0.28502119319387</v>
+        <v>0.2252189409624694</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>39.705124</v>
       </c>
       <c r="I5">
-        <v>0.0995961655869415</v>
+        <v>0.1771904651558058</v>
       </c>
       <c r="J5">
-        <v>0.0995961655869415</v>
+        <v>0.1771904651558058</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N5">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q5">
-        <v>1549.089629146937</v>
+        <v>1020.283027683631</v>
       </c>
       <c r="R5">
-        <v>13941.80666232243</v>
+        <v>9182.54724915268</v>
       </c>
       <c r="S5">
-        <v>0.03232259742121999</v>
+        <v>0.04259333945669377</v>
       </c>
       <c r="T5">
-        <v>0.03232259742121999</v>
+        <v>0.04259333945669378</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>39.705124</v>
       </c>
       <c r="I6">
-        <v>0.0995961655869415</v>
+        <v>0.1771904651558058</v>
       </c>
       <c r="J6">
-        <v>0.0995961655869415</v>
+        <v>0.1771904651558058</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q6">
         <v>1344.41599274821</v>
@@ -818,10 +818,10 @@
         <v>12099.74393473389</v>
       </c>
       <c r="S6">
-        <v>0.02805197070758281</v>
+        <v>0.05612478615873692</v>
       </c>
       <c r="T6">
-        <v>0.0280519707075828</v>
+        <v>0.05612478615873692</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>39.705124</v>
       </c>
       <c r="I7">
-        <v>0.0995961655869415</v>
+        <v>0.1771904651558058</v>
       </c>
       <c r="J7">
-        <v>0.0995961655869415</v>
+        <v>0.1771904651558058</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q7">
         <v>1879.730427267292</v>
@@ -880,10 +880,10 @@
         <v>16917.57384540563</v>
       </c>
       <c r="S7">
-        <v>0.0392215974581387</v>
+        <v>0.07847233954037508</v>
       </c>
       <c r="T7">
-        <v>0.0392215974581387</v>
+        <v>0.07847233954037509</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>23.47369766666667</v>
       </c>
       <c r="H8">
-        <v>70.42109300000001</v>
+        <v>70.421093</v>
       </c>
       <c r="I8">
-        <v>0.1766439726832589</v>
+        <v>0.3142653886548814</v>
       </c>
       <c r="J8">
-        <v>0.1766439726832589</v>
+        <v>0.3142653886548814</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N8">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q8">
-        <v>2747.46868538912</v>
+        <v>1809.576163994112</v>
       </c>
       <c r="R8">
-        <v>24727.21816850208</v>
+        <v>16286.18547594701</v>
       </c>
       <c r="S8">
-        <v>0.05732742804181378</v>
+        <v>0.07554363812238445</v>
       </c>
       <c r="T8">
-        <v>0.05732742804181379</v>
+        <v>0.07554363812238446</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>23.47369766666667</v>
       </c>
       <c r="H9">
-        <v>70.42109300000001</v>
+        <v>70.421093</v>
       </c>
       <c r="I9">
-        <v>0.1766439726832589</v>
+        <v>0.3142653886548814</v>
       </c>
       <c r="J9">
-        <v>0.1766439726832589</v>
+        <v>0.3142653886548814</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q9">
         <v>2384.45908533138</v>
@@ -1004,10 +1004,10 @@
         <v>21460.13176798242</v>
       </c>
       <c r="S9">
-        <v>0.04975303535211135</v>
+        <v>0.09954304098608344</v>
       </c>
       <c r="T9">
-        <v>0.04975303535211135</v>
+        <v>0.09954304098608344</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>23.47369766666667</v>
       </c>
       <c r="H10">
-        <v>70.42109300000001</v>
+        <v>70.421093</v>
       </c>
       <c r="I10">
-        <v>0.1766439726832589</v>
+        <v>0.3142653886548814</v>
       </c>
       <c r="J10">
-        <v>0.1766439726832589</v>
+        <v>0.3142653886548814</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q10">
         <v>3333.893913378025</v>
@@ -1066,10 +1066,10 @@
         <v>30005.04522040223</v>
       </c>
       <c r="S10">
-        <v>0.06956350928933377</v>
+        <v>0.1391787095464135</v>
       </c>
       <c r="T10">
-        <v>0.06956350928933379</v>
+        <v>0.1391787095464135</v>
       </c>
     </row>
   </sheetData>
